--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38529F1E-FD3D-45C3-83D4-D8EB0E532ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4AFFC-4707-4963-9F33-E2932BAA2A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>MAX</t>
   </si>
@@ -162,22 +162,31 @@
     <t>cantidad de numeros que entran en esa clase</t>
   </si>
   <si>
-    <t>Hasta que numero maximo entre en la clase</t>
-  </si>
-  <si>
     <t>limite inferior: el numero minimo - 0.5</t>
   </si>
   <si>
-    <t>limite superior + intervalo de clase</t>
-  </si>
-  <si>
-    <t>cantidad de numero que entra en cada clase</t>
-  </si>
-  <si>
-    <t>el valor central de la clase (inferior+superior )*2</t>
-  </si>
-  <si>
-    <t>f.absoluta * total de datos</t>
+    <t>limite superior: limitr inferior + intervalo de clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es la cantidad de datos que se encuentran dentro de los limites de cada clase, y su sumatoria total deberia de dar la cantidad de datos </t>
+  </si>
+  <si>
+    <t>es el promedio entre el (lim inferior+lim superio)/2</t>
+  </si>
+  <si>
+    <t>es la frec. absoluta dividido entre total de datos, la sumatoria total deberia de dar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es la fre. Abs. Acum. "Menos de" anterior mas la frecuencia abs de la clase actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es la fre. Abs. Acum. "Mas de" anterior menos la frecuencia abs de la clase enterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es la fre. Relat. Acum. "Menos de" anterior mas la frecuencia relativa de la clase actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es la fre. Relat. Acum. "Mas de" anterior menos la frecuencia Relat de la clase enterior </t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,16 +348,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -382,9 +386,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,7 +415,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -635,7 +636,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1188,711 +1189,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="10"/>
-    <col min="4" max="4" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="9">
         <f>MAX(B2:B31)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <f>MIN(B2:B31)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <f>E1-E2</f>
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>22</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>15</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f>E3/D5</f>
         <v>2.5333333333333332</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f>E3/E5</f>
         <v>7.6</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>25</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>2.5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>5</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>7</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>7.6</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>28</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <f>E2-0.5</f>
         <v>17.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <f>F13+$E$10</f>
         <v>22.5</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>4</v>
       </c>
-      <c r="I13" s="12">
-        <f t="shared" ref="I13:I20" si="0">(F13+G13)/2</f>
+      <c r="I13" s="9">
+        <f>(F13+G13)/2</f>
         <v>20</v>
       </c>
-      <c r="J13" s="12">
-        <f t="shared" ref="J13:J20" si="1">H13/$H$21</f>
+      <c r="J13" s="9">
+        <f>H13/$H$21</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <f>H13</f>
         <v>4</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="9">
         <v>30</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="9">
         <f>J13</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>28</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="12">
-        <f t="shared" ref="F14:F20" si="2">G13</f>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F20" si="0">G13</f>
         <v>22.5</v>
       </c>
-      <c r="G14" s="12">
-        <f t="shared" ref="G13:G20" si="3">F14+$E$10</f>
+      <c r="G14" s="9">
+        <f t="shared" ref="G14:G20" si="1">F14+$E$10</f>
         <v>27.5</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>7</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
+        <f t="shared" ref="I13:I20" si="2">(F14+G14)/2</f>
+        <v>25</v>
+      </c>
+      <c r="J14" s="9">
+        <f>H14/$H$21</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="K14" s="9">
+        <f>H14+K13</f>
+        <v>11</v>
+      </c>
+      <c r="L14" s="9">
+        <f>L13-H13</f>
+        <v>26</v>
+      </c>
+      <c r="M14" s="9">
+        <f>J14+M13</f>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="N14" s="9">
+        <f>N13-J13</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J14" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" ref="K14:K20" si="4">H14+K13</f>
-        <v>11</v>
-      </c>
-      <c r="L14" s="12">
-        <f t="shared" ref="L14:L20" si="5">L13-H13</f>
-        <v>26</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" ref="M14:M20" si="6">J14+M13</f>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" ref="N14:N20" si="7">N13-J13</f>
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
+        <v>32.5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="G15" s="12">
+        <v>30</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" ref="J13:J20" si="3">H15/$H$21</f>
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" ref="K14:K20" si="4">H15+K14</f>
+        <v>17</v>
+      </c>
+      <c r="L15" s="9">
+        <f>L14-H14</f>
+        <v>19</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" ref="M14:M20" si="5">J15+M14</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" ref="N14:N20" si="6">N14-J14</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>32.5</v>
-      </c>
-      <c r="H15" s="12">
-        <v>6</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="6"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="7"/>
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <v>31</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="H16" s="12">
-        <v>5</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="9">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="9">
+        <f t="shared" ref="L14:L20" si="7">L15-H15</f>
+        <v>13</v>
+      </c>
+      <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="M16" s="12">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N16" s="9">
         <f t="shared" si="6"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="7"/>
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>32</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>5</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="G17" s="12">
+        <v>40</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>42.5</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M17" s="9">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="M17" s="12">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="N17" s="9">
         <f t="shared" si="6"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="N17" s="12">
-        <f t="shared" si="7"/>
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>32</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>6</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="G18" s="12">
+        <v>45</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>47.5</v>
-      </c>
-      <c r="H18" s="12">
-        <v>2</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="9">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="9">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="12">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="N18" s="9">
         <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="N18" s="12">
-        <f t="shared" si="7"/>
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>33</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>7</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9">
         <f t="shared" si="2"/>
-        <v>47.5</v>
-      </c>
-      <c r="G19" s="12">
+        <v>50</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>52.5</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M19" s="12">
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="6"/>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="N19" s="12">
-        <f t="shared" si="7"/>
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>34</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>8</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
         <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="G20" s="12">
+        <v>55</v>
+      </c>
+      <c r="J20" s="15">
         <f t="shared" si="3"/>
-        <v>57.5</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="L20" s="12">
-        <f t="shared" si="5"/>
+      <c r="L20" s="9">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="16">
+        <f>J20+M19</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N20" s="9">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N20" s="12">
-        <f t="shared" si="7"/>
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>35</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="16">
         <f>SUM(H13:H20)</f>
         <v>30</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="19">
-        <f>SUM(J13:J20)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>35</v>
       </c>
-      <c r="E22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17">
-        <v>36</v>
-      </c>
-      <c r="F23" s="10" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16">
-        <v>39</v>
-      </c>
-      <c r="G24" s="10" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13">
+        <v>40</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16">
-        <v>40</v>
-      </c>
-      <c r="H25" s="10" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>41</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16">
-        <v>41</v>
-      </c>
-      <c r="I26" s="10" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>43</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
         <v>43</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K28" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="L29" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="M30" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="14">
         <v>56</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1911,251 +1918,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>18</v>
       </c>
       <c r="B2">
         <v>22.5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>19</v>
       </c>
       <c r="B3">
         <v>27.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>22.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>21</v>
       </c>
       <c r="B4">
         <v>32.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>27.5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>22</v>
       </c>
       <c r="B5">
         <v>37.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>32.5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>24</v>
       </c>
       <c r="B6">
         <v>42.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>37.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>25</v>
       </c>
       <c r="B7">
         <v>47.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>42.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>25</v>
       </c>
       <c r="B8">
         <v>52.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>47.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>26</v>
       </c>
       <c r="B9">
         <v>57.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>52.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>26</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>57.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>56</v>
       </c>
     </row>
@@ -2172,325 +2179,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C5:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>17.5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>22.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>20</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>0.13333333333333333</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>4</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <v>30</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>0.13333333333333333</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>22.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>27.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>7</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>25</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.23333333333333334</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <f>F7+I6</f>
         <v>11</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <v>26</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <v>0.3666666666666667</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>27.5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>32.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>30</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>0.2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>17</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <v>19</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <v>0.56666666666666665</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="9">
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="9">
         <v>4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>32.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>37.5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>35</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>22</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <v>13</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <v>0.73333333333333328</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="9">
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="9">
         <v>5</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>37.5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>42.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>40</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>0.1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>25</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <v>8</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <v>0.83333333333333326</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="9">
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="9">
         <v>6</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>42.5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>47.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>45</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>27</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <v>5</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>0.89999999999999991</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="17">
         <f>L10-H10</f>
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>47.5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>52.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>50</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>29</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <v>3</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="9">
         <v>0.96666666666666656</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="9">
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>52.5</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>57.5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>55</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>30</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>1</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <v>0.99999999999999989</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="9">
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>30</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L15" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,294 +2508,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="10"/>
-    <col min="4" max="4" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="8">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="8">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="8">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="8">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f>E5-E4</f>
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="8">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <f>E6/8</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="8">
         <v>26</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="8">
         <v>56</v>
       </c>
     </row>
@@ -2801,18 +2808,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -2823,8 +2830,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -2839,8 +2846,8 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -2851,18 +2858,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -2873,8 +2880,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -2885,18 +2892,18 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
       <c r="C10" s="1">
@@ -2909,25 +2916,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2950,8 +2957,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
       <c r="C14" s="1">
@@ -2991,8 +2998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="C15" s="1">
@@ -3034,8 +3041,8 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -3077,8 +3084,8 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -3120,8 +3127,8 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="1">
@@ -3163,8 +3170,8 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="1">
@@ -3206,8 +3213,8 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="C20" s="1"/>
@@ -3222,56 +3229,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -3296,173 +3303,173 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>8</v>
       </c>
       <c r="B1" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>25.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>25</v>
       </c>
     </row>
@@ -3479,69 +3486,69 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10.5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>13.5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>16.5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>19.5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>22.5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25.5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4AFFC-4707-4963-9F33-E2932BAA2A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3ABD36-B009-461A-A566-803FC8C80981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="11" r:id="rId1"/>
-    <sheet name="Histograma" sheetId="12" r:id="rId2"/>
-    <sheet name="Ejercicio3" sheetId="14" r:id="rId3"/>
-    <sheet name="Ejercicio4" sheetId="13" r:id="rId4"/>
-    <sheet name="Ejercicio2" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja9" sheetId="9" r:id="rId6"/>
-    <sheet name="Histograma2" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="Histograma" sheetId="12" r:id="rId3"/>
+    <sheet name="Ejercicio3" sheetId="14" r:id="rId4"/>
+    <sheet name="Ejercicio4" sheetId="13" r:id="rId5"/>
+    <sheet name="Ejercicio2" sheetId="2" r:id="rId6"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId7"/>
+    <sheet name="Histograma2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>MAX</t>
   </si>
@@ -187,6 +188,15 @@
   </si>
   <si>
     <t xml:space="preserve">es la fre. Relat. Acum. "Mas de" anterior menos la frecuencia Relat de la clase enterior </t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -340,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +405,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +431,662 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Ejercicio1!$J$13:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D7-4271-8BF0-6BC8C5B04986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56E0-441D-8F16-E10B1D796CC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="633316568"/>
+        <c:axId val="633314808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="633316568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633314808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633314808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633316568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -633,10 +1304,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -842,7 +1513,730 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FDB2FC-752F-0188-E809-0BE92657C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FE4531-804E-5985-69E4-B1B363AF6A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -883,7 +2277,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1189,18 +2583,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="7"/>
-    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="3" width="11.44140625" style="7"/>
+    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -1215,7 +2609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1230,7 +2624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1245,7 +2639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1262,7 +2656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1279,7 +2673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1298,7 +2692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1306,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1338,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1349,7 +2743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1363,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1374,7 +2768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1410,7 +2804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1454,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1476,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I13:I20" si="2">(F14+G14)/2</f>
+        <f t="shared" ref="I14:I20" si="2">(F14+G14)/2</f>
         <v>25</v>
       </c>
       <c r="J14" s="9">
@@ -1500,7 +2894,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1526,11 +2920,11 @@
         <v>30</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" ref="J13:J20" si="3">H15/$H$21</f>
+        <f t="shared" ref="J15:J20" si="3">H15/$H$21</f>
         <v>0.2</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" ref="K14:K20" si="4">H15+K14</f>
+        <f t="shared" ref="K15:K20" si="4">H15+K14</f>
         <v>17</v>
       </c>
       <c r="L15" s="9">
@@ -1538,15 +2932,15 @@
         <v>19</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" ref="M14:M20" si="5">J15+M14</f>
+        <f t="shared" ref="M15:M19" si="5">J15+M14</f>
         <v>0.56666666666666665</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" ref="N14:N20" si="6">N14-J14</f>
+        <f t="shared" ref="N15:N20" si="6">N14-J14</f>
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1580,7 +2974,7 @@
         <v>22</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ref="L14:L20" si="7">L15-H15</f>
+        <f t="shared" ref="L16:L20" si="7">L15-H15</f>
         <v>13</v>
       </c>
       <c r="M16" s="9">
@@ -1592,7 +2986,7 @@
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1618,7 +3012,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="3"/>
+        <f>H17/$H$21</f>
         <v>0.1</v>
       </c>
       <c r="K17" s="9">
@@ -1638,7 +3032,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1684,7 +3078,7 @@
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1730,7 +3124,7 @@
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1776,7 +3170,7 @@
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1795,7 +3189,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1803,7 +3197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1814,7 +3208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1825,7 +3219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1836,7 +3230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1847,7 +3241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1858,7 +3252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1869,7 +3263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1880,7 +3274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1891,7 +3285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1911,28 +3305,306 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1708AD9F-6437-49CB-A806-14C628251D66}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="E5" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>27.5</v>
+      </c>
+      <c r="F6" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9">
+        <v>52.5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>32.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9">
+        <v>57.5</v>
+      </c>
+      <c r="E8" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>26</v>
+      </c>
+      <c r="E9" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20">
+        <v>57.5</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>28</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>50</v>
+      </c>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>56</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:E12">
+    <sortCondition ref="E5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>18</v>
       </c>
@@ -1946,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>19</v>
       </c>
@@ -1960,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>21</v>
       </c>
@@ -1974,7 +3646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>22</v>
       </c>
@@ -1988,7 +3660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>24</v>
       </c>
@@ -2002,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>25</v>
       </c>
@@ -2016,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>25</v>
       </c>
@@ -2030,7 +3702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>26</v>
       </c>
@@ -2044,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>26</v>
       </c>
@@ -2055,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>27</v>
       </c>
@@ -2066,102 +3738,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>56</v>
       </c>
@@ -2175,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C5:L15"/>
   <sheetViews>
@@ -2183,12 +3855,12 @@
       <selection activeCell="F20" sqref="F20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
@@ -2218,7 +3890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9">
         <v>1</v>
       </c>
@@ -2250,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>2</v>
       </c>
@@ -2283,7 +3955,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="9">
         <v>3</v>
       </c>
@@ -2315,7 +3987,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
         <v>4</v>
       </c>
@@ -2347,7 +4019,7 @@
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9">
         <v>5</v>
       </c>
@@ -2379,7 +4051,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
         <v>6</v>
       </c>
@@ -2412,7 +4084,7 @@
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9">
         <v>7</v>
       </c>
@@ -2444,7 +4116,7 @@
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9">
         <v>8</v>
       </c>
@@ -2476,7 +4148,7 @@
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
@@ -2496,7 +4168,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L15" s="9"/>
     </row>
   </sheetData>
@@ -2504,7 +4176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -2512,14 +4184,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="7"/>
-    <col min="4" max="4" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="3" width="11.44140625" style="7"/>
+    <col min="4" max="4" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2527,7 +4199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2538,7 +4210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2546,7 +4218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2560,7 +4232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2574,7 +4246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2589,7 +4261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2597,7 +4269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2605,7 +4277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2620,7 +4292,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2631,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2639,7 +4311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2647,7 +4319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2655,7 +4327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2663,7 +4335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2671,7 +4343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2679,7 +4351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2687,7 +4359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2695,7 +4367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2703,7 +4375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2711,7 +4383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2719,7 +4391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2727,7 +4399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2735,7 +4407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2743,7 +4415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2751,7 +4423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2759,7 +4431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2767,7 +4439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2775,7 +4447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2783,7 +4455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2791,7 +4463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2804,7 +4476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2812,13 +4484,13 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3">
         <v>8</v>
       </c>
@@ -2830,7 +4502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -2846,7 +4518,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -2858,17 +4530,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2880,7 +4552,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>12</v>
       </c>
@@ -2892,17 +4564,17 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -2916,17 +4588,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>14</v>
       </c>
@@ -2957,7 +4629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -2998,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3041,7 +4713,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3084,7 +4756,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3127,7 +4799,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3170,7 +4842,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3213,7 +4885,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -3229,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -3237,48 +4909,48 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -3295,7 +4967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -3303,9 +4975,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>8</v>
       </c>
@@ -3313,7 +4985,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -3321,7 +4993,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -3329,7 +5001,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -3337,7 +5009,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -3345,7 +5017,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -3353,122 +5025,122 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -3478,7 +5150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3486,9 +5158,9 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -3496,7 +5168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10.5</v>
       </c>
@@ -3504,7 +5176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13.5</v>
       </c>
@@ -3512,7 +5184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16.5</v>
       </c>
@@ -3520,7 +5192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19.5</v>
       </c>
@@ -3528,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22.5</v>
       </c>
@@ -3536,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25.5</v>
       </c>
@@ -3544,7 +5216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>

--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3ABD36-B009-461A-A566-803FC8C80981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22080E-DDE6-485C-AB89-43A9379BC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="11" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,12 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +425,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -498,6 +492,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -517,6 +516,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -536,6 +540,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -555,6 +564,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -574,6 +588,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -593,6 +612,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -614,6 +638,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -635,6 +664,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-CFCC-4845-8804-34721B8E74BB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -858,7 +892,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1086,7 +1120,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1307,7 +1341,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2583,18 +2617,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="7"/>
-    <col min="4" max="4" width="18.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2624,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2639,7 +2673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2656,7 +2690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2673,7 +2707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2692,7 +2726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2700,7 +2734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2732,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2743,7 +2777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2757,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2768,7 +2802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2804,7 +2838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2848,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2894,7 +2928,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2940,7 +2974,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2986,7 +3020,7 @@
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3032,7 +3066,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -3078,7 +3112,7 @@
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3112,7 +3146,7 @@
         <v>29</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="7"/>
+        <f>L18-H18</f>
         <v>3</v>
       </c>
       <c r="M19" s="9">
@@ -3124,7 +3158,7 @@
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -3170,7 +3204,7 @@
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3189,7 +3223,7 @@
       </c>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -3197,7 +3231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -3208,7 +3242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -3219,7 +3253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -3230,7 +3264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3241,7 +3275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -3252,7 +3286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -3263,7 +3297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -3274,7 +3308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -3285,7 +3319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3317,9 +3351,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>18</v>
       </c>
@@ -3327,7 +3361,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>19</v>
       </c>
@@ -3335,7 +3369,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>21</v>
       </c>
@@ -3343,237 +3377,237 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>22</v>
       </c>
       <c r="B4" s="9">
         <v>37.5</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>24</v>
       </c>
       <c r="B5" s="9">
         <v>42.5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>22.5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>47.5</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6">
         <v>27.5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>25</v>
       </c>
       <c r="B7" s="9">
         <v>52.5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>32.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>26</v>
       </c>
       <c r="B8" s="9">
         <v>57.5</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <v>37.5</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>26</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>42.5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>27</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10">
         <v>47.5</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>27</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>52.5</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>28</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>57.5</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>28</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>50</v>
       </c>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>56</v>
       </c>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
     </row>
   </sheetData>
@@ -3590,21 +3624,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>18</v>
       </c>
@@ -3618,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>19</v>
       </c>
@@ -3632,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>21</v>
       </c>
@@ -3646,7 +3680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>22</v>
       </c>
@@ -3660,7 +3694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>24</v>
       </c>
@@ -3674,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>25</v>
       </c>
@@ -3688,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>25</v>
       </c>
@@ -3702,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>26</v>
       </c>
@@ -3716,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>26</v>
       </c>
@@ -3727,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>27</v>
       </c>
@@ -3738,102 +3772,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>56</v>
       </c>
@@ -3855,12 +3889,12 @@
       <selection activeCell="F20" sqref="F20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>1</v>
       </c>
@@ -3922,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>2</v>
       </c>
@@ -3955,7 +3989,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>3</v>
       </c>
@@ -3987,7 +4021,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="9">
         <v>4</v>
       </c>
@@ -4019,7 +4053,7 @@
         <v>0.43333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>5</v>
       </c>
@@ -4051,7 +4085,7 @@
         <v>0.26666666666666661</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>6</v>
       </c>
@@ -4084,7 +4118,7 @@
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>7</v>
       </c>
@@ -4116,7 +4150,7 @@
         <v>9.9999999999999936E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>8</v>
       </c>
@@ -4148,7 +4182,7 @@
         <v>3.333333333333327E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
@@ -4168,7 +4202,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="L15" s="9"/>
     </row>
   </sheetData>
@@ -4184,14 +4218,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="7"/>
-    <col min="4" max="4" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -4199,7 +4233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4210,7 +4244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -4218,7 +4252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4232,7 +4266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4246,7 +4280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4261,7 +4295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4269,7 +4303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4277,7 +4311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4292,7 +4326,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -4303,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -4311,7 +4345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -4319,7 +4353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -4327,7 +4361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -4335,7 +4369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -4343,7 +4377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -4351,7 +4385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -4359,7 +4393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -4367,7 +4401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -4375,7 +4409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -4383,7 +4417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -4391,7 +4425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -4399,7 +4433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -4407,7 +4441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -4415,7 +4449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -4423,7 +4457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -4431,7 +4465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -4439,7 +4473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -4447,7 +4481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -4455,7 +4489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -4463,7 +4497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -4484,13 +4518,13 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>8</v>
       </c>
@@ -4502,7 +4536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -4518,7 +4552,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -4530,17 +4564,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -4552,7 +4586,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>12</v>
       </c>
@@ -4564,17 +4598,17 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -4588,17 +4622,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>14</v>
       </c>
@@ -4629,7 +4663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -4670,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -4713,7 +4747,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4756,7 +4790,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4799,7 +4833,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4842,7 +4876,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4885,7 +4919,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -4901,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -4909,48 +4943,48 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -4975,9 +5009,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>8</v>
       </c>
@@ -4985,7 +5019,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -5001,7 +5035,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -5009,7 +5043,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -5017,7 +5051,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -5025,122 +5059,122 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -5158,9 +5192,9 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -5168,7 +5202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.5</v>
       </c>
@@ -5176,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.5</v>
       </c>
@@ -5184,7 +5218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16.5</v>
       </c>
@@ -5192,7 +5226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19.5</v>
       </c>
@@ -5200,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22.5</v>
       </c>
@@ -5208,7 +5242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25.5</v>
       </c>
@@ -5216,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>

--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC22080E-DDE6-485C-AB89-43A9379BC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25DEA30-74C4-41C3-95DC-6DF638F1C85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,14 +2618,19 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11.42578125" style="7"/>
     <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="5" max="10" width="11.42578125" style="7"/>
+    <col min="11" max="11" width="35.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -2904,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ref="I14:I20" si="2">(F14+G14)/2</f>
+        <f>(F14+G14)/2</f>
         <v>25</v>
       </c>
       <c r="J14" s="9">
@@ -2950,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I14:I20" si="2">(F15+G15)/2</f>
         <v>30</v>
       </c>
       <c r="J15" s="9">
@@ -3886,7 +3891,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:H22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/2/Distribución de FrecuenciasV2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25DEA30-74C4-41C3-95DC-6DF638F1C85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B1C87-C952-4882-9B46-BDCACBB9243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="4560" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
     <sheet name="Histograma" sheetId="12" r:id="rId3"/>
-    <sheet name="Ejercicio3" sheetId="14" r:id="rId4"/>
-    <sheet name="Ejercicio4" sheetId="13" r:id="rId5"/>
-    <sheet name="Ejercicio2" sheetId="2" r:id="rId6"/>
-    <sheet name="Hoja9" sheetId="9" r:id="rId7"/>
-    <sheet name="Histograma2" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId4"/>
+    <sheet name="Ejercicio3" sheetId="14" r:id="rId5"/>
+    <sheet name="Ejercicio4" sheetId="13" r:id="rId6"/>
+    <sheet name="Ejercicio2" sheetId="2" r:id="rId7"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId8"/>
+    <sheet name="Histograma2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>MAX</t>
   </si>
@@ -350,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +404,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,6 +1347,234 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$T$34:$T$42</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$U$34:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B127-4548-A4D4-A8360121BB82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="700175520"/>
+        <c:axId val="700175880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700175520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="700175880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700175880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="700175520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2315,6 +2551,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4895F832-0BB6-17EE-2CC4-611F0B323DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2617,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2955,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ref="I14:I20" si="2">(F15+G15)/2</f>
+        <f t="shared" ref="I15:I20" si="2">(F15+G15)/2</f>
         <v>30</v>
       </c>
       <c r="J15" s="9">
@@ -3627,10 +3904,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,9 +4154,150 @@
         <v>56</v>
       </c>
     </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T34" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="U34" s="21">
+        <v>4</v>
+      </c>
+      <c r="V34" s="20">
+        <v>27.5</v>
+      </c>
+      <c r="W34" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T35" s="20">
+        <v>27.5</v>
+      </c>
+      <c r="U35" s="21">
+        <v>7</v>
+      </c>
+      <c r="V35" s="20">
+        <v>32.5</v>
+      </c>
+      <c r="W35" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T36" s="20">
+        <v>32.5</v>
+      </c>
+      <c r="U36" s="21">
+        <v>6</v>
+      </c>
+      <c r="V36" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="W36" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T37" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="U37" s="21">
+        <v>5</v>
+      </c>
+      <c r="V37" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="W37" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T38" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="U38" s="21">
+        <v>3</v>
+      </c>
+      <c r="V38" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="W38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T39" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="U39" s="21">
+        <v>2</v>
+      </c>
+      <c r="V39" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="W39" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T40" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="U40" s="21">
+        <v>2</v>
+      </c>
+      <c r="V40" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="W40" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T41" s="20">
+        <v>57.5</v>
+      </c>
+      <c r="U41" s="21">
+        <v>1</v>
+      </c>
+      <c r="V41" s="20">
+        <v>57.5</v>
+      </c>
+      <c r="W41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="20:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+      <c r="V42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F10">
-    <sortCondition ref="F3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V34:W42">
+    <sortCondition descending="1" ref="W34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3887,6 +4305,285 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC8528B-70B0-4D92-9EB6-05E30F0EDF45}">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33:U42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T34" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="U34" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T35" s="20">
+        <v>27.5</v>
+      </c>
+      <c r="U35" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T36" s="20">
+        <v>32.5</v>
+      </c>
+      <c r="U36" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T37" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="U37" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T38" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="U38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T39" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="U39" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T40" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="U40" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T41" s="20">
+        <v>57.5</v>
+      </c>
+      <c r="U41" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="20:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T34:T41">
+    <sortCondition ref="T34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C5:L15"/>
   <sheetViews>
@@ -4215,7 +4912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -4515,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -5006,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -5189,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
